--- a/papers/webservice-coalition-learning/figures/matlab/roc_all.xlsx
+++ b/papers/webservice-coalition-learning/figures/matlab/roc_all.xlsx
@@ -13,10 +13,6 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -98,9 +94,6 @@
               <c:f>Sheet1!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -741,11 +734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90513792"/>
-        <c:axId val="89967232"/>
+        <c:axId val="114033024"/>
+        <c:axId val="114034560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90513792"/>
+        <c:axId val="114033024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -755,12 +748,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89967232"/>
+        <c:crossAx val="114034560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89967232"/>
+        <c:axId val="114034560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,7 +764,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90513792"/>
+        <c:crossAx val="114033024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -825,9 +818,6 @@
               <c:f>Sheet1!$E$3:$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1468,11 +1458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153939968"/>
-        <c:axId val="153823488"/>
+        <c:axId val="114071424"/>
+        <c:axId val="114072960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153939968"/>
+        <c:axId val="114071424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1482,12 +1472,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153823488"/>
+        <c:crossAx val="114072960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153823488"/>
+        <c:axId val="114072960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,7 +1488,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153939968"/>
+        <c:crossAx val="114071424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1552,9 +1542,6 @@
               <c:f>Sheet1!$G$3:$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2195,11 +2182,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151317504"/>
-        <c:axId val="151315968"/>
+        <c:axId val="114085248"/>
+        <c:axId val="148378752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151317504"/>
+        <c:axId val="114085248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,12 +2196,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151315968"/>
+        <c:crossAx val="148378752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151315968"/>
+        <c:axId val="148378752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2225,7 +2212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151317504"/>
+        <c:crossAx val="114085248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2279,9 +2266,6 @@
               <c:f>Sheet1!$I$3:$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2436,16 +2420,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.128</c:v>
+                  <c:v>0.22800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.83799999999999997</c:v>
+                  <c:v>0.63800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.91900000000000004</c:v>
+                  <c:v>0.71899999999999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0.93899999999999995</c:v>
@@ -2922,11 +2906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="153936256"/>
-        <c:axId val="153926272"/>
+        <c:axId val="148399232"/>
+        <c:axId val="148400768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="153936256"/>
+        <c:axId val="148399232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2936,12 +2920,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153926272"/>
+        <c:crossAx val="148400768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153926272"/>
+        <c:axId val="148400768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2952,7 +2936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="153936256"/>
+        <c:crossAx val="148399232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3386,15 +3370,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:P106"/>
+  <dimension ref="B6:X106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>0</v>
       </c>
@@ -3432,11 +3416,15 @@
         <v>1E-3</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P5:P68" si="0">A6/100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" ref="P6:P68" si="0">A6/100</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f>I6/2</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>0</v>
       </c>
@@ -3477,8 +3465,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X7">
+        <f t="shared" ref="X7:X28" si="1">I7/2</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -3519,8 +3511,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>0</v>
       </c>
@@ -3561,8 +3557,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -3603,8 +3603,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0</v>
       </c>
@@ -3645,8 +3649,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0</v>
       </c>
@@ -3687,8 +3695,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>0</v>
       </c>
@@ -3729,8 +3741,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -3771,8 +3787,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>0</v>
       </c>
@@ -3813,8 +3833,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0</v>
       </c>
@@ -3855,8 +3879,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0</v>
       </c>
@@ -3897,8 +3925,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -3939,8 +3971,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>0</v>
       </c>
@@ -3981,8 +4017,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>0</v>
       </c>
@@ -4023,8 +4063,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X20">
+        <f t="shared" si="1"/>
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0</v>
       </c>
@@ -4065,8 +4109,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X21">
+        <f t="shared" si="1"/>
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0</v>
       </c>
@@ -4107,8 +4155,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X22">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>0</v>
       </c>
@@ -4149,8 +4201,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X23">
+        <f t="shared" si="1"/>
+        <v>0.3165</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0</v>
       </c>
@@ -4191,8 +4247,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X24">
+        <f t="shared" si="1"/>
+        <v>0.3165</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>0</v>
       </c>
@@ -4233,8 +4293,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X25">
+        <f t="shared" si="1"/>
+        <v>0.3165</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>0</v>
       </c>
@@ -4275,8 +4339,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X26">
+        <f t="shared" si="1"/>
+        <v>0.31850000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>0</v>
       </c>
@@ -4317,8 +4385,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X27">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>0</v>
       </c>
@@ -4359,8 +4431,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="X28">
+        <f t="shared" si="1"/>
+        <v>0.32450000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0</v>
       </c>
@@ -4402,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0</v>
       </c>
@@ -4444,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>0</v>
       </c>
@@ -4486,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>0</v>
       </c>
@@ -5200,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>0</v>
       </c>
@@ -5242,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>0</v>
       </c>
@@ -5284,7 +5360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>0</v>
       </c>
@@ -5326,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>0</v>
       </c>
@@ -5368,7 +5444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>0</v>
       </c>
@@ -5388,7 +5464,7 @@
         <v>0.87</v>
       </c>
       <c r="H53">
-        <v>7.4999999999999997E-2</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="I53">
         <v>0.87</v>
@@ -5409,8 +5485,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>0</v>
       </c>
@@ -5430,7 +5509,7 @@
         <v>0.95599999999999996</v>
       </c>
       <c r="H54">
-        <v>0.128</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="I54">
         <v>0.95599999999999996</v>
@@ -5451,8 +5530,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -5472,7 +5554,7 @@
         <v>0.96399999999999997</v>
       </c>
       <c r="H55">
-        <v>0.83799999999999997</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="I55">
         <v>0.96399999999999997</v>
@@ -5493,8 +5575,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>8.5999999999999993E-2</v>
       </c>
@@ -5514,7 +5599,7 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="H56">
-        <v>0.91900000000000004</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="I56">
         <v>0.97599999999999998</v>
@@ -5535,8 +5620,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>0.16800000000000001</v>
       </c>
@@ -5578,7 +5666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0.86799999999999999</v>
       </c>
@@ -5620,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>0.92500000000000004</v>
       </c>
@@ -5662,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>0.94699999999999995</v>
       </c>
@@ -5704,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>0.95599999999999996</v>
       </c>
@@ -5746,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>0.96099999999999997</v>
       </c>
@@ -5788,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>0.96499999999999997</v>
       </c>
@@ -5830,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>0.96699999999999997</v>
       </c>
@@ -6078,7 +6166,7 @@
         <v>0.93899999999999995</v>
       </c>
       <c r="P69">
-        <f t="shared" ref="P69:P104" si="1">A69/100</f>
+        <f t="shared" ref="P69:P104" si="2">A69/100</f>
         <v>0</v>
       </c>
     </row>
@@ -6120,7 +6208,7 @@
         <v>0.96</v>
       </c>
       <c r="P70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6162,7 +6250,7 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="P71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6204,7 +6292,7 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="P72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6246,7 +6334,7 @@
         <v>0.98</v>
       </c>
       <c r="P73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6288,7 +6376,7 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="P74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6330,7 +6418,7 @@
         <v>0.99</v>
       </c>
       <c r="P75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6372,7 +6460,7 @@
         <v>0.995</v>
       </c>
       <c r="P76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6414,7 +6502,7 @@
         <v>0.996</v>
       </c>
       <c r="P77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6456,7 +6544,7 @@
         <v>0.997</v>
       </c>
       <c r="P78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6498,7 +6586,7 @@
         <v>0.997</v>
       </c>
       <c r="P79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6540,7 +6628,7 @@
         <v>0.997</v>
       </c>
       <c r="P80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6582,7 +6670,7 @@
         <v>0.997</v>
       </c>
       <c r="P81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6624,7 +6712,7 @@
         <v>0.997</v>
       </c>
       <c r="P82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6666,7 +6754,7 @@
         <v>0.997</v>
       </c>
       <c r="P83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6708,7 +6796,7 @@
         <v>0.997</v>
       </c>
       <c r="P84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6750,7 +6838,7 @@
         <v>0.997</v>
       </c>
       <c r="P85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6792,7 +6880,7 @@
         <v>0.998</v>
       </c>
       <c r="P86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6834,7 +6922,7 @@
         <v>0.998</v>
       </c>
       <c r="P87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6876,7 +6964,7 @@
         <v>0.999</v>
       </c>
       <c r="P88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6918,7 +7006,7 @@
         <v>0.999</v>
       </c>
       <c r="P89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6960,7 +7048,7 @@
         <v>0.999</v>
       </c>
       <c r="P90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7002,7 +7090,7 @@
         <v>0.999</v>
       </c>
       <c r="P91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7044,7 +7132,7 @@
         <v>0.999</v>
       </c>
       <c r="P92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7086,7 +7174,7 @@
         <v>0.999</v>
       </c>
       <c r="P93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7128,7 +7216,7 @@
         <v>0.999</v>
       </c>
       <c r="P94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7170,7 +7258,7 @@
         <v>0.999</v>
       </c>
       <c r="P95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7212,7 +7300,7 @@
         <v>0.999</v>
       </c>
       <c r="P96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7254,7 +7342,7 @@
         <v>0.999</v>
       </c>
       <c r="P97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7296,7 +7384,7 @@
         <v>0.999</v>
       </c>
       <c r="P98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7338,7 +7426,7 @@
         <v>0.999</v>
       </c>
       <c r="P99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7380,7 +7468,7 @@
         <v>0.999</v>
       </c>
       <c r="P100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7422,7 +7510,7 @@
         <v>0.999</v>
       </c>
       <c r="P101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7464,7 +7552,7 @@
         <v>0.999</v>
       </c>
       <c r="P102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7506,7 +7594,7 @@
         <v>0.999</v>
       </c>
       <c r="P103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7548,7 +7636,7 @@
         <v>0.999</v>
       </c>
       <c r="P104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
